--- a/input/filters not in use/Power_DB filter.xlsx
+++ b/input/filters not in use/Power_DB filter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TemplateAutomaterV2\DDPTemplateAutomationV2\input\FilterScripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savan\OneDrive\Desktop\ESRG DDPT template\DDPTemplateAutomationVFinal\input\filters not in use\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22C48CF-5C2F-4BEB-BE2D-FEF96D3815A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE84585-A9EB-44DD-A3D5-5DFB7C016A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POWER (STL)_REF" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <author>Joseph Masenda</author>
   </authors>
   <commentList>
-    <comment ref="H221" authorId="0" shapeId="0" xr:uid="{D025CFB6-8543-44E9-8151-44EF99BCAA17}">
+    <comment ref="H214" authorId="0" shapeId="0" xr:uid="{D025CFB6-8543-44E9-8151-44EF99BCAA17}">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="90">
   <si>
     <t>Process</t>
   </si>
@@ -297,6 +297,48 @@
   <si>
     <t>NewCapacity</t>
   </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>['FlowIn']</t>
+  </si>
+  <si>
+    <t>['Power']</t>
+  </si>
+  <si>
+    <t>['Coal']</t>
+  </si>
+  <si>
+    <t>EJ</t>
+  </si>
+  <si>
+    <t>['Gas']</t>
+  </si>
+  <si>
+    <t>['Diesel', 'HFO', 'Kerosene']</t>
+  </si>
+  <si>
+    <t>['Nuclear']</t>
+  </si>
+  <si>
+    <t>['Biomass']</t>
+  </si>
+  <si>
+    <t>['FlowInMt']</t>
+  </si>
+  <si>
+    <t>elc imports</t>
+  </si>
+  <si>
+    <t>elc exports</t>
+  </si>
+  <si>
+    <t>Extractive energy industries (Coal, Crude oil, Natural Gas)</t>
+  </si>
+  <si>
+    <t>Other energy industries (refining, energy conversion activities…)</t>
+  </si>
 </sst>
 </file>
 
@@ -338,12 +380,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -358,12 +412,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,35 +724,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16BE98D-E183-480F-B694-3BAAD8AD45E6}">
-  <dimension ref="A1:AC369"/>
+  <dimension ref="A1:AC362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H120" sqref="H120"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.7109375" style="1"/>
+    <col min="1" max="3" width="8.6640625" style="1"/>
     <col min="4" max="4" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="1"/>
-    <col min="10" max="10" width="27.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="1"/>
+    <col min="10" max="10" width="27.88671875" style="1" customWidth="1"/>
     <col min="11" max="11" width="67" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
-    <col min="13" max="14" width="8.7109375" style="1"/>
-    <col min="15" max="15" width="35.5703125" style="1" customWidth="1"/>
-    <col min="16" max="18" width="8.7109375" style="1"/>
-    <col min="19" max="19" width="30.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" customWidth="1"/>
-    <col min="22" max="24" width="8.7109375" style="1"/>
-    <col min="30" max="16384" width="8.7109375" style="1"/>
+    <col min="12" max="12" width="14.6640625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="8.6640625" style="1"/>
+    <col min="15" max="15" width="35.5546875" style="1" customWidth="1"/>
+    <col min="16" max="18" width="8.6640625" style="1"/>
+    <col min="19" max="19" width="30.44140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.6640625" customWidth="1"/>
+    <col min="22" max="24" width="8.6640625" style="1"/>
+    <col min="30" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -764,7 +822,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -772,7 +830,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
@@ -834,7 +892,7 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -842,8 +900,8 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C65" si="0">C2+1</f>
-        <v>22</v>
+        <f t="shared" ref="C3:C64" si="0">C2+1</f>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>21</v>
@@ -900,7 +958,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -909,7 +967,7 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
@@ -966,7 +1024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -975,7 +1033,7 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>21</v>
@@ -1032,7 +1090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1041,7 +1099,7 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1055,7 +1113,7 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1064,7 +1122,7 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1078,7 +1136,7 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1087,7 +1145,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
@@ -1149,7 +1207,7 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1158,7 +1216,7 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>21</v>
@@ -1220,7 +1278,7 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1229,7 +1287,7 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>21</v>
@@ -1291,7 +1349,7 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1300,7 +1358,7 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>21</v>
@@ -1362,7 +1420,7 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1371,7 +1429,7 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>21</v>
@@ -1433,7 +1491,7 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1442,7 +1500,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>21</v>
@@ -1504,7 +1562,7 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1513,7 +1571,7 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>21</v>
@@ -1575,7 +1633,7 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1583,139 +1641,182 @@
         <v>24</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="U15" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1">
-        <v>24</v>
-      </c>
-      <c r="C17" s="1">
+    <row r="16" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4">
+        <v>24</v>
+      </c>
+      <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="D16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="U16" s="5"/>
+    </row>
+    <row r="17" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4">
+        <v>24</v>
+      </c>
+      <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="U17" s="5"/>
+    </row>
+    <row r="18" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>24</v>
+      </c>
+      <c r="C18" s="7">
+        <v>40</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -1724,69 +1825,21 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="U19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -1794,8 +1847,8 @@
         <v>24</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <f>C19+1</f>
+        <v>42</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1809,7 +1862,7 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -1818,21 +1871,69 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="U21" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -1841,7 +1942,7 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>21</v>
@@ -1865,7 +1966,7 @@
         <v>35</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>21</v>
@@ -1897,13 +1998,8 @@
       <c r="U22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-    </row>
-    <row r="23" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -1912,7 +2008,7 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>21</v>
@@ -1936,7 +2032,7 @@
         <v>35</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>21</v>
@@ -1968,8 +2064,13 @@
       <c r="U23" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -1978,7 +2079,7 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>21</v>
@@ -2002,7 +2103,7 @@
         <v>35</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>21</v>
@@ -2040,7 +2141,7 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -2049,7 +2150,7 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>21</v>
@@ -2073,7 +2174,7 @@
         <v>35</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>21</v>
@@ -2111,7 +2212,7 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -2120,7 +2221,7 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>21</v>
@@ -2144,7 +2245,7 @@
         <v>35</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>21</v>
@@ -2176,13 +2277,8 @@
       <c r="U26" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-    </row>
-    <row r="27" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -2191,7 +2287,7 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>21</v>
@@ -2215,7 +2311,7 @@
         <v>35</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>21</v>
@@ -2247,8 +2343,13 @@
       <c r="U27" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+    </row>
+    <row r="28" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -2257,7 +2358,7 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>21</v>
@@ -2313,13 +2414,8 @@
       <c r="U28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-    </row>
-    <row r="29" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -2328,7 +2424,7 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>21</v>
@@ -2352,7 +2448,7 @@
         <v>35</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>21</v>
@@ -2384,8 +2480,13 @@
       <c r="U29" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -2394,7 +2495,7 @@
       </c>
       <c r="C30" s="1">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>21</v>
@@ -2418,7 +2519,7 @@
         <v>35</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>21</v>
@@ -2456,7 +2557,7 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -2465,7 +2566,7 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>21</v>
@@ -2489,7 +2590,7 @@
         <v>35</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>21</v>
@@ -2521,13 +2622,8 @@
       <c r="U31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-    </row>
-    <row r="32" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -2536,7 +2632,7 @@
       </c>
       <c r="C32" s="1">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>21</v>
@@ -2560,7 +2656,7 @@
         <v>35</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>21</v>
@@ -2593,7 +2689,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -2602,7 +2698,7 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>21</v>
@@ -2626,7 +2722,7 @@
         <v>35</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>21</v>
@@ -2658,8 +2754,13 @@
       <c r="U33" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+    </row>
+    <row r="34" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -2668,7 +2769,7 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>21</v>
@@ -2692,7 +2793,7 @@
         <v>35</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>21</v>
@@ -2724,13 +2825,8 @@
       <c r="U34" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-    </row>
-    <row r="35" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -2739,7 +2835,7 @@
       </c>
       <c r="C35" s="1">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>21</v>
@@ -2763,7 +2859,7 @@
         <v>35</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>21</v>
@@ -2796,7 +2892,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -2805,7 +2901,7 @@
       </c>
       <c r="C36" s="1">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>21</v>
@@ -2826,10 +2922,10 @@
         <v>21</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>21</v>
@@ -2861,8 +2957,13 @@
       <c r="U36" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -2871,69 +2972,21 @@
       </c>
       <c r="C37" s="1">
         <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U37" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="U37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -2942,7 +2995,7 @@
       </c>
       <c r="C38" s="1">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -2956,30 +3009,73 @@
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>1</v>
-      </c>
-      <c r="B39" s="1">
-        <v>24</v>
-      </c>
-      <c r="C39" s="1">
+    <row r="39" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>1</v>
+      </c>
+      <c r="B39" s="4">
+        <v>24</v>
+      </c>
+      <c r="C39" s="4">
         <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="U39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -2988,69 +3084,21 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U40" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="U40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -3059,21 +3107,69 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="U41" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>1</v>
       </c>
@@ -3082,7 +3178,7 @@
       </c>
       <c r="C42" s="1">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>21</v>
@@ -3106,7 +3202,7 @@
         <v>21</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>21</v>
@@ -3138,13 +3234,8 @@
       <c r="U42" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-      <c r="AA42" s="1"/>
-      <c r="AB42" s="1"/>
-      <c r="AC42" s="1"/>
-    </row>
-    <row r="43" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -3153,7 +3244,7 @@
       </c>
       <c r="C43" s="1">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>21</v>
@@ -3177,7 +3268,7 @@
         <v>21</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>21</v>
@@ -3209,8 +3300,13 @@
       <c r="U43" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -3219,7 +3315,7 @@
       </c>
       <c r="C44" s="1">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>21</v>
@@ -3243,7 +3339,7 @@
         <v>21</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>21</v>
@@ -3281,7 +3377,7 @@
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>1</v>
       </c>
@@ -3290,7 +3386,7 @@
       </c>
       <c r="C45" s="1">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>21</v>
@@ -3314,7 +3410,7 @@
         <v>21</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>21</v>
@@ -3352,7 +3448,7 @@
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>1</v>
       </c>
@@ -3361,7 +3457,7 @@
       </c>
       <c r="C46" s="1">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>21</v>
@@ -3385,7 +3481,7 @@
         <v>21</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>21</v>
@@ -3423,7 +3519,7 @@
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -3432,7 +3528,7 @@
       </c>
       <c r="C47" s="1">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>21</v>
@@ -3456,7 +3552,7 @@
         <v>21</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>21</v>
@@ -3494,7 +3590,7 @@
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -3503,7 +3599,7 @@
       </c>
       <c r="C48" s="1">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>21</v>
@@ -3559,13 +3655,8 @@
       <c r="U48" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-      <c r="AA48" s="1"/>
-      <c r="AB48" s="1"/>
-      <c r="AC48" s="1"/>
-    </row>
-    <row r="49" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -3574,7 +3665,7 @@
       </c>
       <c r="C49" s="1">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>21</v>
@@ -3598,7 +3689,7 @@
         <v>21</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>21</v>
@@ -3630,8 +3721,13 @@
       <c r="U49" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -3640,7 +3736,7 @@
       </c>
       <c r="C50" s="1">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>21</v>
@@ -3664,7 +3760,7 @@
         <v>21</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>21</v>
@@ -3702,7 +3798,7 @@
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -3711,7 +3807,7 @@
       </c>
       <c r="C51" s="1">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>21</v>
@@ -3735,7 +3831,7 @@
         <v>21</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>21</v>
@@ -3767,13 +3863,8 @@
       <c r="U51" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
-      <c r="AA51" s="1"/>
-      <c r="AB51" s="1"/>
-      <c r="AC51" s="1"/>
-    </row>
-    <row r="52" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -3782,7 +3873,7 @@
       </c>
       <c r="C52" s="1">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>21</v>
@@ -3806,7 +3897,7 @@
         <v>21</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>21</v>
@@ -3839,7 +3930,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -3848,7 +3939,7 @@
       </c>
       <c r="C53" s="1">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>21</v>
@@ -3872,7 +3963,7 @@
         <v>21</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>21</v>
@@ -3904,8 +3995,13 @@
       <c r="U53" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+    </row>
+    <row r="54" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>1</v>
       </c>
@@ -3914,7 +4010,7 @@
       </c>
       <c r="C54" s="1">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>21</v>
@@ -3938,7 +4034,7 @@
         <v>21</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>21</v>
@@ -3970,13 +4066,8 @@
       <c r="U54" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-      <c r="AA54" s="1"/>
-      <c r="AB54" s="1"/>
-      <c r="AC54" s="1"/>
-    </row>
-    <row r="55" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>1</v>
       </c>
@@ -3985,7 +4076,7 @@
       </c>
       <c r="C55" s="1">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>21</v>
@@ -4009,7 +4100,7 @@
         <v>21</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>21</v>
@@ -4042,7 +4133,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -4051,7 +4142,7 @@
       </c>
       <c r="C56" s="1">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>21</v>
@@ -4075,7 +4166,7 @@
         <v>21</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>21</v>
@@ -4107,8 +4198,13 @@
       <c r="U56" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>1</v>
       </c>
@@ -4117,69 +4213,21 @@
       </c>
       <c r="C57" s="1">
         <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U57" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="U57" s="1"/>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>1</v>
       </c>
@@ -4188,7 +4236,7 @@
       </c>
       <c r="C58" s="1">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -4202,7 +4250,7 @@
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>1</v>
       </c>
@@ -4211,21 +4259,69 @@
       </c>
       <c r="C59" s="1">
         <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="U59" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>1</v>
       </c>
@@ -4234,69 +4330,21 @@
       </c>
       <c r="C60" s="1">
         <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U60" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="U60" s="1"/>
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>1</v>
       </c>
@@ -4305,21 +4353,69 @@
       </c>
       <c r="C61" s="1">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="U61" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U61" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>1</v>
       </c>
@@ -4328,7 +4424,7 @@
       </c>
       <c r="C62" s="1">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>21</v>
@@ -4376,7 +4472,7 @@
         <v>21</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="T62" s="1" t="s">
         <v>21</v>
@@ -4390,7 +4486,7 @@
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>1</v>
       </c>
@@ -4399,7 +4495,7 @@
       </c>
       <c r="C63" s="1">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>21</v>
@@ -4447,7 +4543,7 @@
         <v>21</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="T63" s="1" t="s">
         <v>21</v>
@@ -4461,7 +4557,7 @@
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>1</v>
       </c>
@@ -4470,7 +4566,7 @@
       </c>
       <c r="C64" s="1">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>21</v>
@@ -4518,7 +4614,7 @@
         <v>21</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="T64" s="1" t="s">
         <v>21</v>
@@ -4532,7 +4628,7 @@
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>1</v>
       </c>
@@ -4540,8 +4636,8 @@
         <v>24</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" si="0"/>
-        <v>84</v>
+        <f t="shared" ref="C65:C123" si="1">C64+1</f>
+        <v>87</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>21</v>
@@ -4565,7 +4661,7 @@
         <v>64</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>21</v>
@@ -4589,7 +4685,7 @@
         <v>21</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="T65" s="1" t="s">
         <v>21</v>
@@ -4603,7 +4699,7 @@
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>1</v>
       </c>
@@ -4611,70 +4707,22 @@
         <v>24</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" ref="C66:C129" si="1">C65+1</f>
-        <v>85</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U66" s="2" t="s">
-        <v>71</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="U66" s="1"/>
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
       <c r="AC66" s="1"/>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>1</v>
       </c>
@@ -4683,7 +4731,7 @@
       </c>
       <c r="C67" s="1">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -4697,7 +4745,7 @@
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>1</v>
       </c>
@@ -4706,7 +4754,7 @@
       </c>
       <c r="C68" s="1">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -4720,7 +4768,7 @@
       <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>1</v>
       </c>
@@ -4729,7 +4777,7 @@
       </c>
       <c r="C69" s="1">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -4743,7 +4791,7 @@
       <c r="AB69" s="1"/>
       <c r="AC69" s="1"/>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>1</v>
       </c>
@@ -4752,7 +4800,7 @@
       </c>
       <c r="C70" s="1">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -4766,7 +4814,7 @@
       <c r="AB70" s="1"/>
       <c r="AC70" s="1"/>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>1</v>
       </c>
@@ -4774,22 +4822,70 @@
         <v>24</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="U71" s="1"/>
+        <f t="shared" ref="C71" si="2">C70+1</f>
+        <v>93</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U71" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
       <c r="AC71" s="1"/>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>1</v>
       </c>
@@ -4797,8 +4893,8 @@
         <v>24</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" ref="C72" si="2">C71+1</f>
-        <v>91</v>
+        <f t="shared" si="1"/>
+        <v>94</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>21</v>
@@ -4822,7 +4918,7 @@
         <v>35</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>21</v>
@@ -4854,13 +4950,8 @@
       <c r="U72" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y72" s="1"/>
-      <c r="Z72" s="1"/>
-      <c r="AA72" s="1"/>
-      <c r="AB72" s="1"/>
-      <c r="AC72" s="1"/>
-    </row>
-    <row r="73" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>1</v>
       </c>
@@ -4869,7 +4960,7 @@
       </c>
       <c r="C73" s="1">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>21</v>
@@ -4893,7 +4984,7 @@
         <v>35</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>21</v>
@@ -4925,8 +5016,13 @@
       <c r="U73" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>1</v>
       </c>
@@ -4935,7 +5031,7 @@
       </c>
       <c r="C74" s="1">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>21</v>
@@ -4959,7 +5055,7 @@
         <v>35</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>21</v>
@@ -4997,7 +5093,7 @@
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>1</v>
       </c>
@@ -5006,7 +5102,7 @@
       </c>
       <c r="C75" s="1">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>21</v>
@@ -5030,7 +5126,7 @@
         <v>35</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>21</v>
@@ -5068,7 +5164,7 @@
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>1</v>
       </c>
@@ -5077,7 +5173,7 @@
       </c>
       <c r="C76" s="1">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>21</v>
@@ -5101,7 +5197,7 @@
         <v>35</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>21</v>
@@ -5139,7 +5235,7 @@
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>1</v>
       </c>
@@ -5148,7 +5244,7 @@
       </c>
       <c r="C77" s="1">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>21</v>
@@ -5172,7 +5268,7 @@
         <v>35</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>21</v>
@@ -5210,7 +5306,7 @@
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>1</v>
       </c>
@@ -5219,7 +5315,7 @@
       </c>
       <c r="C78" s="1">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>21</v>
@@ -5275,13 +5371,8 @@
       <c r="U78" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y78" s="1"/>
-      <c r="Z78" s="1"/>
-      <c r="AA78" s="1"/>
-      <c r="AB78" s="1"/>
-      <c r="AC78" s="1"/>
-    </row>
-    <row r="79" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>1</v>
       </c>
@@ -5290,7 +5381,7 @@
       </c>
       <c r="C79" s="1">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>21</v>
@@ -5314,7 +5405,7 @@
         <v>35</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>21</v>
@@ -5346,8 +5437,13 @@
       <c r="U79" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>1</v>
       </c>
@@ -5356,7 +5452,7 @@
       </c>
       <c r="C80" s="1">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>21</v>
@@ -5380,7 +5476,7 @@
         <v>35</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>21</v>
@@ -5418,7 +5514,7 @@
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>1</v>
       </c>
@@ -5427,7 +5523,7 @@
       </c>
       <c r="C81" s="1">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>21</v>
@@ -5451,7 +5547,7 @@
         <v>35</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>21</v>
@@ -5483,13 +5579,8 @@
       <c r="U81" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y81" s="1"/>
-      <c r="Z81" s="1"/>
-      <c r="AA81" s="1"/>
-      <c r="AB81" s="1"/>
-      <c r="AC81" s="1"/>
-    </row>
-    <row r="82" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>1</v>
       </c>
@@ -5498,7 +5589,7 @@
       </c>
       <c r="C82" s="1">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>21</v>
@@ -5522,7 +5613,7 @@
         <v>35</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>21</v>
@@ -5555,7 +5646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>1</v>
       </c>
@@ -5564,7 +5655,7 @@
       </c>
       <c r="C83" s="1">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>21</v>
@@ -5588,7 +5679,7 @@
         <v>35</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>21</v>
@@ -5620,8 +5711,13 @@
       <c r="U83" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+    </row>
+    <row r="84" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>1</v>
       </c>
@@ -5630,7 +5726,7 @@
       </c>
       <c r="C84" s="1">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>21</v>
@@ -5654,7 +5750,7 @@
         <v>35</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>21</v>
@@ -5686,13 +5782,8 @@
       <c r="U84" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y84" s="1"/>
-      <c r="Z84" s="1"/>
-      <c r="AA84" s="1"/>
-      <c r="AB84" s="1"/>
-      <c r="AC84" s="1"/>
-    </row>
-    <row r="85" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>1</v>
       </c>
@@ -5701,7 +5792,7 @@
       </c>
       <c r="C85" s="1">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>21</v>
@@ -5725,7 +5816,7 @@
         <v>35</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>21</v>
@@ -5758,7 +5849,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>1</v>
       </c>
@@ -5767,7 +5858,7 @@
       </c>
       <c r="C86" s="1">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>21</v>
@@ -5788,10 +5879,10 @@
         <v>21</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>21</v>
@@ -5823,8 +5914,13 @@
       <c r="U86" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
+      <c r="AC86" s="1"/>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>1</v>
       </c>
@@ -5833,69 +5929,21 @@
       </c>
       <c r="C87" s="1">
         <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L87" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U87" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="U87" s="1"/>
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
       <c r="AC87" s="1"/>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>1</v>
       </c>
@@ -5904,21 +5952,23 @@
       </c>
       <c r="C88" s="1">
         <f t="shared" si="1"/>
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
-      <c r="U88" s="1"/>
+      <c r="U88" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
       <c r="AC88" s="1"/>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>1</v>
       </c>
@@ -5927,13 +5977,59 @@
       </c>
       <c r="C89" s="1">
         <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T89" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="U89" s="1" t="s">
         <v>21</v>
       </c>
@@ -5943,7 +6039,7 @@
       <c r="AB89" s="1"/>
       <c r="AC89" s="1"/>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>1</v>
       </c>
@@ -5952,7 +6048,7 @@
       </c>
       <c r="C90" s="1">
         <f t="shared" si="1"/>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>21</v>
@@ -5976,7 +6072,7 @@
         <v>35</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>21</v>
@@ -6008,13 +6104,8 @@
       <c r="U90" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y90" s="1"/>
-      <c r="Z90" s="1"/>
-      <c r="AA90" s="1"/>
-      <c r="AB90" s="1"/>
-      <c r="AC90" s="1"/>
-    </row>
-    <row r="91" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>1</v>
       </c>
@@ -6023,7 +6114,7 @@
       </c>
       <c r="C91" s="1">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>21</v>
@@ -6047,7 +6138,7 @@
         <v>35</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>21</v>
@@ -6079,8 +6170,13 @@
       <c r="U91" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>1</v>
       </c>
@@ -6089,7 +6185,7 @@
       </c>
       <c r="C92" s="1">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>21</v>
@@ -6113,7 +6209,7 @@
         <v>35</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>21</v>
@@ -6151,7 +6247,7 @@
       <c r="AB92" s="1"/>
       <c r="AC92" s="1"/>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>1</v>
       </c>
@@ -6160,7 +6256,7 @@
       </c>
       <c r="C93" s="1">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>21</v>
@@ -6184,7 +6280,7 @@
         <v>35</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>21</v>
@@ -6222,7 +6318,7 @@
       <c r="AB93" s="1"/>
       <c r="AC93" s="1"/>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>1</v>
       </c>
@@ -6231,7 +6327,7 @@
       </c>
       <c r="C94" s="1">
         <f t="shared" si="1"/>
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>21</v>
@@ -6255,7 +6351,7 @@
         <v>35</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>21</v>
@@ -6293,7 +6389,7 @@
       <c r="AB94" s="1"/>
       <c r="AC94" s="1"/>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>1</v>
       </c>
@@ -6302,7 +6398,7 @@
       </c>
       <c r="C95" s="1">
         <f t="shared" si="1"/>
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>21</v>
@@ -6326,7 +6422,7 @@
         <v>35</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>21</v>
@@ -6364,7 +6460,7 @@
       <c r="AB95" s="1"/>
       <c r="AC95" s="1"/>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>1</v>
       </c>
@@ -6373,7 +6469,7 @@
       </c>
       <c r="C96" s="1">
         <f t="shared" si="1"/>
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>21</v>
@@ -6435,7 +6531,7 @@
       <c r="AB96" s="1"/>
       <c r="AC96" s="1"/>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>1</v>
       </c>
@@ -6444,7 +6540,7 @@
       </c>
       <c r="C97" s="1">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>21</v>
@@ -6468,7 +6564,7 @@
         <v>35</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L97" s="2" t="s">
         <v>21</v>
@@ -6500,13 +6596,8 @@
       <c r="U97" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y97" s="1"/>
-      <c r="Z97" s="1"/>
-      <c r="AA97" s="1"/>
-      <c r="AB97" s="1"/>
-      <c r="AC97" s="1"/>
-    </row>
-    <row r="98" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>1</v>
       </c>
@@ -6515,7 +6606,7 @@
       </c>
       <c r="C98" s="1">
         <f t="shared" si="1"/>
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>21</v>
@@ -6539,7 +6630,7 @@
         <v>35</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L98" s="2" t="s">
         <v>21</v>
@@ -6571,8 +6662,13 @@
       <c r="U98" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
+      <c r="AC98" s="1"/>
+    </row>
+    <row r="99" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>1</v>
       </c>
@@ -6581,7 +6677,7 @@
       </c>
       <c r="C99" s="1">
         <f t="shared" si="1"/>
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>21</v>
@@ -6605,7 +6701,7 @@
         <v>35</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>21</v>
@@ -6637,13 +6733,8 @@
       <c r="U99" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y99" s="1"/>
-      <c r="Z99" s="1"/>
-      <c r="AA99" s="1"/>
-      <c r="AB99" s="1"/>
-      <c r="AC99" s="1"/>
-    </row>
-    <row r="100" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>1</v>
       </c>
@@ -6652,7 +6743,7 @@
       </c>
       <c r="C100" s="1">
         <f t="shared" si="1"/>
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>21</v>
@@ -6676,7 +6767,7 @@
         <v>35</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>21</v>
@@ -6709,7 +6800,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>1</v>
       </c>
@@ -6718,7 +6809,7 @@
       </c>
       <c r="C101" s="1">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>21</v>
@@ -6742,7 +6833,7 @@
         <v>35</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>21</v>
@@ -6774,8 +6865,13 @@
       <c r="U101" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
+      <c r="AA101" s="1"/>
+      <c r="AB101" s="1"/>
+      <c r="AC101" s="1"/>
+    </row>
+    <row r="102" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>1</v>
       </c>
@@ -6784,7 +6880,7 @@
       </c>
       <c r="C102" s="1">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>21</v>
@@ -6808,7 +6904,7 @@
         <v>35</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>21</v>
@@ -6840,13 +6936,8 @@
       <c r="U102" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y102" s="1"/>
-      <c r="Z102" s="1"/>
-      <c r="AA102" s="1"/>
-      <c r="AB102" s="1"/>
-      <c r="AC102" s="1"/>
-    </row>
-    <row r="103" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>1</v>
       </c>
@@ -6855,7 +6946,7 @@
       </c>
       <c r="C103" s="1">
         <f t="shared" si="1"/>
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>21</v>
@@ -6879,7 +6970,7 @@
         <v>35</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L103" s="2" t="s">
         <v>21</v>
@@ -6912,7 +7003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>1</v>
       </c>
@@ -6921,7 +7012,7 @@
       </c>
       <c r="C104" s="1">
         <f t="shared" si="1"/>
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>21</v>
@@ -6942,10 +7033,10 @@
         <v>21</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>21</v>
@@ -6977,8 +7068,13 @@
       <c r="U104" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y104" s="1"/>
+      <c r="Z104" s="1"/>
+      <c r="AA104" s="1"/>
+      <c r="AB104" s="1"/>
+      <c r="AC104" s="1"/>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>1</v>
       </c>
@@ -6987,69 +7083,21 @@
       </c>
       <c r="C105" s="1">
         <f t="shared" si="1"/>
-        <v>124</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K105" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L105" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T105" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U105" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="U105" s="1"/>
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
       <c r="AC105" s="1"/>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>1</v>
       </c>
@@ -7058,7 +7106,7 @@
       </c>
       <c r="C106" s="1">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
@@ -7072,7 +7120,7 @@
       <c r="AB106" s="1"/>
       <c r="AC106" s="1"/>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>1</v>
       </c>
@@ -7081,21 +7129,69 @@
       </c>
       <c r="C107" s="1">
         <f t="shared" si="1"/>
-        <v>126</v>
-      </c>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="U107" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q107" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R107" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S107" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T107" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U107" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
       <c r="AC107" s="1"/>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>1</v>
       </c>
@@ -7104,7 +7200,7 @@
       </c>
       <c r="C108" s="1">
         <f t="shared" si="1"/>
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>21</v>
@@ -7128,7 +7224,7 @@
         <v>35</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>21</v>
@@ -7160,13 +7256,8 @@
       <c r="U108" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y108" s="1"/>
-      <c r="Z108" s="1"/>
-      <c r="AA108" s="1"/>
-      <c r="AB108" s="1"/>
-      <c r="AC108" s="1"/>
-    </row>
-    <row r="109" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>1</v>
       </c>
@@ -7175,7 +7266,7 @@
       </c>
       <c r="C109" s="1">
         <f t="shared" si="1"/>
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>21</v>
@@ -7199,7 +7290,7 @@
         <v>35</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>21</v>
@@ -7231,8 +7322,13 @@
       <c r="U109" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y109" s="1"/>
+      <c r="Z109" s="1"/>
+      <c r="AA109" s="1"/>
+      <c r="AB109" s="1"/>
+      <c r="AC109" s="1"/>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>1</v>
       </c>
@@ -7241,7 +7337,7 @@
       </c>
       <c r="C110" s="1">
         <f t="shared" si="1"/>
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>21</v>
@@ -7265,7 +7361,7 @@
         <v>35</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="L110" s="2" t="s">
         <v>21</v>
@@ -7303,7 +7399,7 @@
       <c r="AB110" s="1"/>
       <c r="AC110" s="1"/>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>1</v>
       </c>
@@ -7312,7 +7408,7 @@
       </c>
       <c r="C111" s="1">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>21</v>
@@ -7336,7 +7432,7 @@
         <v>35</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>21</v>
@@ -7374,7 +7470,7 @@
       <c r="AB111" s="1"/>
       <c r="AC111" s="1"/>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>1</v>
       </c>
@@ -7383,7 +7479,7 @@
       </c>
       <c r="C112" s="1">
         <f t="shared" si="1"/>
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>21</v>
@@ -7407,7 +7503,7 @@
         <v>35</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>21</v>
@@ -7445,7 +7541,7 @@
       <c r="AB112" s="1"/>
       <c r="AC112" s="1"/>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>1</v>
       </c>
@@ -7454,7 +7550,7 @@
       </c>
       <c r="C113" s="1">
         <f t="shared" si="1"/>
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>21</v>
@@ -7478,7 +7574,7 @@
         <v>35</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="L113" s="2" t="s">
         <v>21</v>
@@ -7516,7 +7612,7 @@
       <c r="AB113" s="1"/>
       <c r="AC113" s="1"/>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>1</v>
       </c>
@@ -7525,7 +7621,7 @@
       </c>
       <c r="C114" s="1">
         <f t="shared" si="1"/>
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>21</v>
@@ -7587,7 +7683,7 @@
       <c r="AB114" s="1"/>
       <c r="AC114" s="1"/>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>1</v>
       </c>
@@ -7596,7 +7692,7 @@
       </c>
       <c r="C115" s="1">
         <f t="shared" si="1"/>
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>21</v>
@@ -7620,7 +7716,7 @@
         <v>35</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L115" s="2" t="s">
         <v>21</v>
@@ -7652,13 +7748,8 @@
       <c r="U115" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y115" s="1"/>
-      <c r="Z115" s="1"/>
-      <c r="AA115" s="1"/>
-      <c r="AB115" s="1"/>
-      <c r="AC115" s="1"/>
-    </row>
-    <row r="116" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>1</v>
       </c>
@@ -7667,7 +7758,7 @@
       </c>
       <c r="C116" s="1">
         <f t="shared" si="1"/>
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>21</v>
@@ -7691,7 +7782,7 @@
         <v>35</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L116" s="2" t="s">
         <v>21</v>
@@ -7723,8 +7814,13 @@
       <c r="U116" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y116" s="1"/>
+      <c r="Z116" s="1"/>
+      <c r="AA116" s="1"/>
+      <c r="AB116" s="1"/>
+      <c r="AC116" s="1"/>
+    </row>
+    <row r="117" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>1</v>
       </c>
@@ -7733,7 +7829,7 @@
       </c>
       <c r="C117" s="1">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>21</v>
@@ -7757,7 +7853,7 @@
         <v>35</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L117" s="2" t="s">
         <v>21</v>
@@ -7789,13 +7885,8 @@
       <c r="U117" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y117" s="1"/>
-      <c r="Z117" s="1"/>
-      <c r="AA117" s="1"/>
-      <c r="AB117" s="1"/>
-      <c r="AC117" s="1"/>
-    </row>
-    <row r="118" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>1</v>
       </c>
@@ -7804,7 +7895,7 @@
       </c>
       <c r="C118" s="1">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>21</v>
@@ -7828,7 +7919,7 @@
         <v>35</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L118" s="2" t="s">
         <v>21</v>
@@ -7861,7 +7952,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>1</v>
       </c>
@@ -7870,7 +7961,7 @@
       </c>
       <c r="C119" s="1">
         <f t="shared" si="1"/>
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>21</v>
@@ -7894,7 +7985,7 @@
         <v>35</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="L119" s="2" t="s">
         <v>21</v>
@@ -7926,8 +8017,13 @@
       <c r="U119" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y119" s="1"/>
+      <c r="Z119" s="1"/>
+      <c r="AA119" s="1"/>
+      <c r="AB119" s="1"/>
+      <c r="AC119" s="1"/>
+    </row>
+    <row r="120" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>1</v>
       </c>
@@ -7936,7 +8032,7 @@
       </c>
       <c r="C120" s="1">
         <f t="shared" si="1"/>
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>21</v>
@@ -7960,7 +8056,7 @@
         <v>35</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>21</v>
@@ -7992,13 +8088,8 @@
       <c r="U120" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y120" s="1"/>
-      <c r="Z120" s="1"/>
-      <c r="AA120" s="1"/>
-      <c r="AB120" s="1"/>
-      <c r="AC120" s="1"/>
-    </row>
-    <row r="121" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>1</v>
       </c>
@@ -8007,7 +8098,7 @@
       </c>
       <c r="C121" s="1">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>21</v>
@@ -8031,7 +8122,7 @@
         <v>35</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>21</v>
@@ -8064,7 +8155,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>1</v>
       </c>
@@ -8073,7 +8164,7 @@
       </c>
       <c r="C122" s="1">
         <f t="shared" si="1"/>
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>21</v>
@@ -8094,10 +8185,10 @@
         <v>21</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="L122" s="2" t="s">
         <v>21</v>
@@ -8129,8 +8220,13 @@
       <c r="U122" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y122" s="1"/>
+      <c r="Z122" s="1"/>
+      <c r="AA122" s="1"/>
+      <c r="AB122" s="1"/>
+      <c r="AC122" s="1"/>
+    </row>
+    <row r="123" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>1</v>
       </c>
@@ -8139,267 +8235,516 @@
       </c>
       <c r="C123" s="1">
         <f t="shared" si="1"/>
-        <v>142</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K123" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L123" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M123" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N123" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O123" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P123" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q123" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R123" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S123" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T123" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U123" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="U123" s="1"/>
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
       <c r="AC123" s="1"/>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>1</v>
-      </c>
-      <c r="B124" s="1">
-        <v>24</v>
-      </c>
-      <c r="C124" s="1">
-        <f t="shared" si="1"/>
-        <v>143</v>
-      </c>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="J124" s="2"/>
-      <c r="K124" s="2"/>
-      <c r="L124" s="2"/>
-      <c r="U124" s="1"/>
-      <c r="Y124" s="1"/>
-      <c r="Z124" s="1"/>
-      <c r="AA124" s="1"/>
-      <c r="AB124" s="1"/>
-      <c r="AC124" s="1"/>
-    </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>1</v>
-      </c>
-      <c r="B125" s="1">
-        <v>24</v>
-      </c>
-      <c r="C125" s="1">
-        <f t="shared" si="1"/>
-        <v>144</v>
-      </c>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="J125" s="2"/>
-      <c r="K125" s="2"/>
-      <c r="L125" s="2"/>
-      <c r="U125" s="1"/>
-      <c r="Y125" s="1"/>
-      <c r="Z125" s="1"/>
-      <c r="AA125" s="1"/>
-      <c r="AB125" s="1"/>
-      <c r="AC125" s="1"/>
-    </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>1</v>
-      </c>
-      <c r="B126" s="1">
-        <v>24</v>
-      </c>
-      <c r="C126" s="1">
-        <f t="shared" si="1"/>
-        <v>145</v>
-      </c>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="J126" s="2"/>
-      <c r="K126" s="2"/>
-      <c r="L126" s="2"/>
-      <c r="U126" s="1"/>
-      <c r="Y126" s="1"/>
-      <c r="Z126" s="1"/>
-      <c r="AA126" s="1"/>
-      <c r="AB126" s="1"/>
-      <c r="AC126" s="1"/>
-    </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>1</v>
-      </c>
-      <c r="B127" s="1">
-        <v>24</v>
-      </c>
-      <c r="C127" s="1">
-        <f t="shared" si="1"/>
-        <v>146</v>
-      </c>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="J127" s="2"/>
-      <c r="K127" s="2"/>
-      <c r="L127" s="2"/>
-      <c r="U127" s="1"/>
-      <c r="Y127" s="1"/>
-      <c r="Z127" s="1"/>
-      <c r="AA127" s="1"/>
-      <c r="AB127" s="1"/>
-      <c r="AC127" s="1"/>
-    </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>1</v>
-      </c>
-      <c r="B128" s="1">
-        <v>24</v>
-      </c>
-      <c r="C128" s="1">
-        <f t="shared" si="1"/>
-        <v>147</v>
-      </c>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="J128" s="2"/>
-      <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
-      <c r="U128" s="1"/>
-      <c r="Y128" s="1"/>
-      <c r="Z128" s="1"/>
-      <c r="AA128" s="1"/>
-      <c r="AB128" s="1"/>
-      <c r="AC128" s="1"/>
-    </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>1</v>
-      </c>
-      <c r="B129" s="1">
-        <v>24</v>
-      </c>
-      <c r="C129" s="1">
-        <f t="shared" si="1"/>
+    <row r="124" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="6">
+        <f t="shared" ref="A124:B137" si="3">A$2</f>
+        <v>1</v>
+      </c>
+      <c r="B124" s="6">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="C124">
         <v>148</v>
       </c>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="U129" s="1"/>
-      <c r="Y129" s="1"/>
-      <c r="Z129" s="1"/>
-      <c r="AA129" s="1"/>
-      <c r="AB129" s="1"/>
-      <c r="AC129" s="1"/>
-    </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>1</v>
-      </c>
-      <c r="B130" s="1">
-        <v>24</v>
-      </c>
-      <c r="C130" s="1">
-        <f t="shared" ref="C130:C142" si="3">C129+1</f>
+      <c r="D124" t="s">
+        <v>21</v>
+      </c>
+      <c r="E124" t="s">
+        <v>21</v>
+      </c>
+      <c r="F124" s="6" t="str">
+        <f t="shared" ref="F124:G137" si="4">F$2</f>
+        <v>[2010, 2020, 2030, 2040, 2050]</v>
+      </c>
+      <c r="G124" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>netzero_9_imagine</v>
+      </c>
+      <c r="H124" t="s">
+        <v>77</v>
+      </c>
+      <c r="I124" t="s">
+        <v>21</v>
+      </c>
+      <c r="J124" t="s">
+        <v>78</v>
+      </c>
+      <c r="K124" t="s">
+        <v>21</v>
+      </c>
+      <c r="L124" t="s">
+        <v>21</v>
+      </c>
+      <c r="M124" t="s">
+        <v>21</v>
+      </c>
+      <c r="N124" t="s">
+        <v>21</v>
+      </c>
+      <c r="O124" t="s">
+        <v>21</v>
+      </c>
+      <c r="P124" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>21</v>
+      </c>
+      <c r="R124" t="s">
+        <v>21</v>
+      </c>
+      <c r="S124" t="s">
+        <v>79</v>
+      </c>
+      <c r="T124" t="s">
+        <v>21</v>
+      </c>
+      <c r="U124" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B125" s="6">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="C125">
         <v>149</v>
       </c>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="K130" s="2"/>
-      <c r="U130" s="1"/>
-      <c r="Y130" s="1"/>
-      <c r="Z130" s="1"/>
-      <c r="AA130" s="1"/>
-      <c r="AB130" s="1"/>
-      <c r="AC130" s="1"/>
-    </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>1</v>
-      </c>
-      <c r="B131" s="1">
-        <v>24</v>
-      </c>
-      <c r="C131" s="1">
+      <c r="D125" t="s">
+        <v>21</v>
+      </c>
+      <c r="E125" t="s">
+        <v>21</v>
+      </c>
+      <c r="F125" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>[2010, 2020, 2030, 2040, 2050]</v>
+      </c>
+      <c r="G125" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>netzero_9_imagine</v>
+      </c>
+      <c r="H125" t="s">
+        <v>77</v>
+      </c>
+      <c r="I125" t="s">
+        <v>21</v>
+      </c>
+      <c r="J125" t="s">
+        <v>78</v>
+      </c>
+      <c r="K125" t="s">
+        <v>21</v>
+      </c>
+      <c r="L125" t="s">
+        <v>21</v>
+      </c>
+      <c r="M125" t="s">
+        <v>21</v>
+      </c>
+      <c r="N125" t="s">
+        <v>21</v>
+      </c>
+      <c r="O125" t="s">
+        <v>21</v>
+      </c>
+      <c r="P125" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>21</v>
+      </c>
+      <c r="R125" t="s">
+        <v>21</v>
+      </c>
+      <c r="S125" t="s">
+        <v>81</v>
+      </c>
+      <c r="T125" t="s">
+        <v>21</v>
+      </c>
+      <c r="U125" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+    </row>
+    <row r="127" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="6">
         <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="H131" s="2"/>
-      <c r="U131" s="1"/>
-      <c r="Y131" s="1"/>
-      <c r="Z131" s="1"/>
-      <c r="AA131" s="1"/>
-      <c r="AB131" s="1"/>
-      <c r="AC131" s="1"/>
-    </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>1</v>
-      </c>
-      <c r="B132" s="1">
-        <v>24</v>
-      </c>
-      <c r="C132" s="1">
+        <v>1</v>
+      </c>
+      <c r="B127" s="6">
         <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="C127">
         <v>151</v>
       </c>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="J132" s="2"/>
-      <c r="K132" s="2"/>
-      <c r="L132" s="2"/>
-      <c r="U132" s="1"/>
-      <c r="Y132" s="1"/>
-      <c r="Z132" s="1"/>
-      <c r="AA132" s="1"/>
-      <c r="AB132" s="1"/>
-      <c r="AC132" s="1"/>
-    </row>
-    <row r="133" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>21</v>
+      </c>
+      <c r="E127" t="s">
+        <v>21</v>
+      </c>
+      <c r="F127" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>[2010, 2020, 2030, 2040, 2050]</v>
+      </c>
+      <c r="G127" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>netzero_9_imagine</v>
+      </c>
+      <c r="H127" t="s">
+        <v>77</v>
+      </c>
+      <c r="I127" t="s">
+        <v>21</v>
+      </c>
+      <c r="J127" t="s">
+        <v>78</v>
+      </c>
+      <c r="K127" t="s">
+        <v>21</v>
+      </c>
+      <c r="L127" t="s">
+        <v>21</v>
+      </c>
+      <c r="M127" t="s">
+        <v>21</v>
+      </c>
+      <c r="N127" t="s">
+        <v>21</v>
+      </c>
+      <c r="O127" t="s">
+        <v>21</v>
+      </c>
+      <c r="P127" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>21</v>
+      </c>
+      <c r="R127" t="s">
+        <v>21</v>
+      </c>
+      <c r="S127" t="s">
+        <v>82</v>
+      </c>
+      <c r="T127" t="s">
+        <v>21</v>
+      </c>
+      <c r="U127" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+    </row>
+    <row r="129" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B129" s="6">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="C129">
+        <v>153</v>
+      </c>
+      <c r="D129" t="s">
+        <v>21</v>
+      </c>
+      <c r="E129" t="s">
+        <v>21</v>
+      </c>
+      <c r="F129" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>[2010, 2020, 2030, 2040, 2050]</v>
+      </c>
+      <c r="G129" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>netzero_9_imagine</v>
+      </c>
+      <c r="H129" t="s">
+        <v>77</v>
+      </c>
+      <c r="I129" t="s">
+        <v>21</v>
+      </c>
+      <c r="J129" t="s">
+        <v>78</v>
+      </c>
+      <c r="K129" t="s">
+        <v>21</v>
+      </c>
+      <c r="L129" t="s">
+        <v>21</v>
+      </c>
+      <c r="M129" t="s">
+        <v>21</v>
+      </c>
+      <c r="N129" t="s">
+        <v>21</v>
+      </c>
+      <c r="O129" t="s">
+        <v>21</v>
+      </c>
+      <c r="P129" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>21</v>
+      </c>
+      <c r="R129" t="s">
+        <v>21</v>
+      </c>
+      <c r="S129" t="s">
+        <v>83</v>
+      </c>
+      <c r="T129" t="s">
+        <v>21</v>
+      </c>
+      <c r="U129" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B130" s="6">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="C130">
+        <v>154</v>
+      </c>
+      <c r="D130" t="s">
+        <v>21</v>
+      </c>
+      <c r="E130" t="s">
+        <v>21</v>
+      </c>
+      <c r="F130" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>[2010, 2020, 2030, 2040, 2050]</v>
+      </c>
+      <c r="G130" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>netzero_9_imagine</v>
+      </c>
+      <c r="H130" t="s">
+        <v>77</v>
+      </c>
+      <c r="I130" t="s">
+        <v>21</v>
+      </c>
+      <c r="J130" t="s">
+        <v>78</v>
+      </c>
+      <c r="K130" t="s">
+        <v>21</v>
+      </c>
+      <c r="L130" t="s">
+        <v>21</v>
+      </c>
+      <c r="M130" t="s">
+        <v>21</v>
+      </c>
+      <c r="N130" t="s">
+        <v>21</v>
+      </c>
+      <c r="O130" t="s">
+        <v>21</v>
+      </c>
+      <c r="P130" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>21</v>
+      </c>
+      <c r="R130" t="s">
+        <v>21</v>
+      </c>
+      <c r="S130" t="s">
+        <v>84</v>
+      </c>
+      <c r="T130" t="s">
+        <v>21</v>
+      </c>
+      <c r="U130" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B131" s="6">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="C131">
+        <v>159</v>
+      </c>
+      <c r="D131" t="s">
+        <v>21</v>
+      </c>
+      <c r="E131" t="s">
+        <v>21</v>
+      </c>
+      <c r="F131" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>[2010, 2020, 2030, 2040, 2050]</v>
+      </c>
+      <c r="G131" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>netzero_9_imagine</v>
+      </c>
+      <c r="H131" t="s">
+        <v>85</v>
+      </c>
+      <c r="I131" t="s">
+        <v>21</v>
+      </c>
+      <c r="J131" t="s">
+        <v>78</v>
+      </c>
+      <c r="K131" t="s">
+        <v>21</v>
+      </c>
+      <c r="L131" t="s">
+        <v>21</v>
+      </c>
+      <c r="M131" t="s">
+        <v>21</v>
+      </c>
+      <c r="N131" t="s">
+        <v>21</v>
+      </c>
+      <c r="O131" t="s">
+        <v>21</v>
+      </c>
+      <c r="P131" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>21</v>
+      </c>
+      <c r="R131" t="s">
+        <v>21</v>
+      </c>
+      <c r="S131" t="s">
+        <v>79</v>
+      </c>
+      <c r="T131" t="s">
+        <v>21</v>
+      </c>
+      <c r="U131" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B132" s="6">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="C132">
+        <v>160</v>
+      </c>
+      <c r="D132" t="s">
+        <v>21</v>
+      </c>
+      <c r="E132" t="s">
+        <v>21</v>
+      </c>
+      <c r="F132" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>[2010, 2020, 2030, 2040, 2050]</v>
+      </c>
+      <c r="G132" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>netzero_9_imagine</v>
+      </c>
+      <c r="H132" t="s">
+        <v>85</v>
+      </c>
+      <c r="I132" t="s">
+        <v>21</v>
+      </c>
+      <c r="J132" t="s">
+        <v>78</v>
+      </c>
+      <c r="K132" t="s">
+        <v>21</v>
+      </c>
+      <c r="L132" t="s">
+        <v>21</v>
+      </c>
+      <c r="M132" t="s">
+        <v>21</v>
+      </c>
+      <c r="N132" t="s">
+        <v>21</v>
+      </c>
+      <c r="O132" t="s">
+        <v>21</v>
+      </c>
+      <c r="P132" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>21</v>
+      </c>
+      <c r="R132" t="s">
+        <v>21</v>
+      </c>
+      <c r="S132" t="s">
+        <v>81</v>
+      </c>
+      <c r="T132" t="s">
+        <v>21</v>
+      </c>
+      <c r="U132" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>1</v>
       </c>
@@ -8407,59 +8752,91 @@
         <v>24</v>
       </c>
       <c r="C133" s="1">
-        <f t="shared" si="3"/>
-        <v>152</v>
-      </c>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
+        <f t="shared" ref="C133:C143" si="5">C132+1</f>
+        <v>161</v>
+      </c>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
-      <c r="I133" s="1"/>
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
-      <c r="M133" s="1"/>
-      <c r="N133" s="1"/>
-      <c r="O133" s="1"/>
-      <c r="P133" s="1"/>
-      <c r="Q133" s="1"/>
-      <c r="R133" s="1"/>
-      <c r="S133" s="1"/>
-      <c r="T133" s="1"/>
       <c r="U133" s="1"/>
-    </row>
-    <row r="134" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>1</v>
-      </c>
-      <c r="B134" s="1">
-        <v>24</v>
-      </c>
-      <c r="C134" s="1">
+      <c r="Y133" s="1"/>
+      <c r="Z133" s="1"/>
+      <c r="AA133" s="1"/>
+      <c r="AB133" s="1"/>
+      <c r="AC133" s="1"/>
+    </row>
+    <row r="134" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="6">
         <f t="shared" si="3"/>
-        <v>153</v>
-      </c>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="2"/>
-      <c r="K134" s="2"/>
-      <c r="L134" s="2"/>
-      <c r="M134" s="1"/>
-      <c r="N134" s="1"/>
-      <c r="O134" s="1"/>
-      <c r="P134" s="1"/>
-      <c r="Q134" s="1"/>
-      <c r="R134" s="1"/>
-      <c r="S134" s="1"/>
-      <c r="T134" s="1"/>
-      <c r="U134" s="1"/>
-    </row>
-    <row r="135" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B134" s="6">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="C134">
+        <v>162</v>
+      </c>
+      <c r="D134" t="s">
+        <v>21</v>
+      </c>
+      <c r="E134" t="s">
+        <v>21</v>
+      </c>
+      <c r="F134" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>[2010, 2020, 2030, 2040, 2050]</v>
+      </c>
+      <c r="G134" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>netzero_9_imagine</v>
+      </c>
+      <c r="H134" t="s">
+        <v>85</v>
+      </c>
+      <c r="I134" t="s">
+        <v>21</v>
+      </c>
+      <c r="J134" t="s">
+        <v>78</v>
+      </c>
+      <c r="K134" t="s">
+        <v>21</v>
+      </c>
+      <c r="L134" t="s">
+        <v>21</v>
+      </c>
+      <c r="M134" t="s">
+        <v>21</v>
+      </c>
+      <c r="N134" t="s">
+        <v>21</v>
+      </c>
+      <c r="O134" t="s">
+        <v>21</v>
+      </c>
+      <c r="P134" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>21</v>
+      </c>
+      <c r="R134" t="s">
+        <v>21</v>
+      </c>
+      <c r="S134" t="s">
+        <v>82</v>
+      </c>
+      <c r="T134" t="s">
+        <v>21</v>
+      </c>
+      <c r="U134" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>1</v>
       </c>
@@ -8467,8 +8844,8 @@
         <v>24</v>
       </c>
       <c r="C135" s="1">
-        <f t="shared" si="3"/>
-        <v>154</v>
+        <f t="shared" si="5"/>
+        <v>163</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -8489,53 +8866,145 @@
       <c r="T135" s="1"/>
       <c r="U135" s="1"/>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>1</v>
-      </c>
-      <c r="B136" s="1">
-        <v>24</v>
-      </c>
-      <c r="C136" s="1">
+    <row r="136" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="6">
         <f t="shared" si="3"/>
-        <v>155</v>
-      </c>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="J136" s="2"/>
-      <c r="K136" s="2"/>
-      <c r="L136" s="2"/>
-      <c r="U136" s="1"/>
-      <c r="Y136" s="1"/>
-      <c r="Z136" s="1"/>
-      <c r="AA136" s="1"/>
-      <c r="AB136" s="1"/>
-      <c r="AC136" s="1"/>
-    </row>
-    <row r="137" spans="1:29" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>1</v>
-      </c>
-      <c r="B137" s="1">
-        <v>24</v>
-      </c>
-      <c r="C137" s="1">
+        <v>1</v>
+      </c>
+      <c r="B136" s="6">
         <f t="shared" si="3"/>
-        <v>156</v>
-      </c>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
-      <c r="J137" s="2"/>
-      <c r="K137" s="2"/>
-      <c r="L137" s="2"/>
-      <c r="U137" s="1"/>
-      <c r="Y137" s="1"/>
-      <c r="Z137" s="1"/>
-      <c r="AA137" s="1"/>
-      <c r="AB137" s="1"/>
-      <c r="AC137" s="1"/>
-    </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C136">
+        <v>164</v>
+      </c>
+      <c r="D136" t="s">
+        <v>21</v>
+      </c>
+      <c r="E136" t="s">
+        <v>21</v>
+      </c>
+      <c r="F136" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>[2010, 2020, 2030, 2040, 2050]</v>
+      </c>
+      <c r="G136" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>netzero_9_imagine</v>
+      </c>
+      <c r="H136" t="s">
+        <v>85</v>
+      </c>
+      <c r="I136" t="s">
+        <v>21</v>
+      </c>
+      <c r="J136" t="s">
+        <v>78</v>
+      </c>
+      <c r="K136" t="s">
+        <v>21</v>
+      </c>
+      <c r="L136" t="s">
+        <v>21</v>
+      </c>
+      <c r="M136" t="s">
+        <v>21</v>
+      </c>
+      <c r="N136" t="s">
+        <v>21</v>
+      </c>
+      <c r="O136" t="s">
+        <v>21</v>
+      </c>
+      <c r="P136" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>21</v>
+      </c>
+      <c r="R136" t="s">
+        <v>21</v>
+      </c>
+      <c r="S136" t="s">
+        <v>83</v>
+      </c>
+      <c r="T136" t="s">
+        <v>21</v>
+      </c>
+      <c r="U136" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B137" s="6">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="C137">
+        <v>165</v>
+      </c>
+      <c r="D137" t="s">
+        <v>21</v>
+      </c>
+      <c r="E137" t="s">
+        <v>21</v>
+      </c>
+      <c r="F137" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>[2010, 2020, 2030, 2040, 2050]</v>
+      </c>
+      <c r="G137" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>netzero_9_imagine</v>
+      </c>
+      <c r="H137" t="s">
+        <v>85</v>
+      </c>
+      <c r="I137" t="s">
+        <v>21</v>
+      </c>
+      <c r="J137" t="s">
+        <v>78</v>
+      </c>
+      <c r="K137" t="s">
+        <v>21</v>
+      </c>
+      <c r="L137" t="s">
+        <v>21</v>
+      </c>
+      <c r="M137" t="s">
+        <v>21</v>
+      </c>
+      <c r="N137" t="s">
+        <v>21</v>
+      </c>
+      <c r="O137" t="s">
+        <v>21</v>
+      </c>
+      <c r="P137" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>21</v>
+      </c>
+      <c r="R137" t="s">
+        <v>21</v>
+      </c>
+      <c r="S137" t="s">
+        <v>84</v>
+      </c>
+      <c r="T137" t="s">
+        <v>21</v>
+      </c>
+      <c r="U137" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>1</v>
       </c>
@@ -8543,15 +9012,14 @@
         <v>24</v>
       </c>
       <c r="C138" s="1">
-        <f t="shared" si="3"/>
-        <v>157</v>
+        <f t="shared" si="5"/>
+        <v>166</v>
       </c>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
-      <c r="S138" s="2"/>
       <c r="U138" s="1"/>
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
@@ -8559,7 +9027,7 @@
       <c r="AB138" s="1"/>
       <c r="AC138" s="1"/>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>1</v>
       </c>
@@ -8567,8 +9035,8 @@
         <v>24</v>
       </c>
       <c r="C139" s="1">
-        <f t="shared" si="3"/>
-        <v>158</v>
+        <f t="shared" si="5"/>
+        <v>167</v>
       </c>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
@@ -8583,7 +9051,7 @@
       <c r="AB139" s="1"/>
       <c r="AC139" s="1"/>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>1</v>
       </c>
@@ -8591,8 +9059,8 @@
         <v>24</v>
       </c>
       <c r="C140" s="1">
-        <f t="shared" si="3"/>
-        <v>159</v>
+        <f t="shared" si="5"/>
+        <v>168</v>
       </c>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
@@ -8607,7 +9075,7 @@
       <c r="AB140" s="1"/>
       <c r="AC140" s="1"/>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>1</v>
       </c>
@@ -8615,8 +9083,11 @@
         <v>24</v>
       </c>
       <c r="C141" s="1">
-        <f t="shared" si="3"/>
-        <v>160</v>
+        <f t="shared" si="5"/>
+        <v>169</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
@@ -8631,7 +9102,7 @@
       <c r="AB141" s="1"/>
       <c r="AC141" s="1"/>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>1</v>
       </c>
@@ -8639,8 +9110,11 @@
         <v>24</v>
       </c>
       <c r="C142" s="1">
-        <f t="shared" si="3"/>
-        <v>161</v>
+        <f t="shared" si="5"/>
+        <v>170</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
@@ -8655,7 +9129,7 @@
       <c r="AB142" s="1"/>
       <c r="AC142" s="1"/>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>1</v>
       </c>
@@ -8663,8 +9137,8 @@
         <v>24</v>
       </c>
       <c r="C143" s="1">
-        <f t="shared" ref="C143:C146" si="4">C142+1</f>
-        <v>162</v>
+        <f t="shared" si="5"/>
+        <v>171</v>
       </c>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
@@ -8679,105 +9153,59 @@
       <c r="AB143" s="1"/>
       <c r="AC143" s="1"/>
     </row>
-    <row r="144" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>1</v>
-      </c>
-      <c r="B144" s="1">
-        <v>24</v>
-      </c>
-      <c r="C144" s="1">
-        <f t="shared" si="4"/>
-        <v>163</v>
-      </c>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
+    <row r="144" spans="1:29" x14ac:dyDescent="0.3">
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
-      <c r="I144" s="1"/>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
-      <c r="M144" s="1"/>
-      <c r="N144" s="1"/>
-      <c r="O144" s="1"/>
-      <c r="P144" s="1"/>
-      <c r="Q144" s="1"/>
-      <c r="R144" s="1"/>
-      <c r="S144" s="1"/>
-      <c r="T144" s="1"/>
       <c r="U144" s="1"/>
-    </row>
-    <row r="145" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>1</v>
-      </c>
-      <c r="B145" s="1">
-        <v>24</v>
-      </c>
-      <c r="C145" s="1">
-        <f t="shared" si="4"/>
-        <v>164</v>
-      </c>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
+      <c r="Y144" s="1"/>
+      <c r="Z144" s="1"/>
+      <c r="AA144" s="1"/>
+      <c r="AB144" s="1"/>
+      <c r="AC144" s="1"/>
+    </row>
+    <row r="145" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
-      <c r="I145" s="1"/>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
-      <c r="M145" s="1"/>
-      <c r="N145" s="1"/>
-      <c r="O145" s="1"/>
-      <c r="P145" s="1"/>
-      <c r="Q145" s="1"/>
-      <c r="R145" s="1"/>
-      <c r="S145" s="1"/>
-      <c r="T145" s="1"/>
       <c r="U145" s="1"/>
-    </row>
-    <row r="146" spans="1:29" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>1</v>
-      </c>
-      <c r="B146" s="1">
-        <v>24</v>
-      </c>
-      <c r="C146" s="1">
-        <f t="shared" si="4"/>
-        <v>165</v>
-      </c>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
+      <c r="Y145" s="1"/>
+      <c r="Z145" s="1"/>
+      <c r="AA145" s="1"/>
+      <c r="AB145" s="1"/>
+      <c r="AC145" s="1"/>
+    </row>
+    <row r="146" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
-      <c r="I146" s="1"/>
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
-      <c r="M146" s="1"/>
-      <c r="N146" s="1"/>
-      <c r="O146" s="1"/>
-      <c r="P146" s="1"/>
-      <c r="Q146" s="1"/>
-      <c r="R146" s="1"/>
-      <c r="S146" s="1"/>
-      <c r="T146" s="1"/>
       <c r="U146" s="1"/>
-    </row>
-    <row r="147" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G147" s="4"/>
-      <c r="H147" s="4"/>
-      <c r="J147" s="4"/>
-      <c r="K147" s="4"/>
-      <c r="L147" s="4"/>
+      <c r="Y146" s="1"/>
+      <c r="Z146" s="1"/>
+      <c r="AA146" s="1"/>
+      <c r="AB146" s="1"/>
+      <c r="AC146" s="1"/>
+    </row>
+    <row r="147" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
       <c r="U147" s="1"/>
-    </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y147" s="1"/>
+      <c r="Z147" s="1"/>
+      <c r="AA147" s="1"/>
+      <c r="AB147" s="1"/>
+      <c r="AC147" s="1"/>
+    </row>
+    <row r="148" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="J148" s="2"/>
@@ -8790,7 +9218,7 @@
       <c r="AB148" s="1"/>
       <c r="AC148" s="1"/>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="149" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="J149" s="2"/>
@@ -8803,7 +9231,7 @@
       <c r="AB149" s="1"/>
       <c r="AC149" s="1"/>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="150" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="J150" s="2"/>
@@ -8816,7 +9244,7 @@
       <c r="AB150" s="1"/>
       <c r="AC150" s="1"/>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="151" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
       <c r="J151" s="2"/>
@@ -8829,7 +9257,7 @@
       <c r="AB151" s="1"/>
       <c r="AC151" s="1"/>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="152" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
       <c r="J152" s="2"/>
@@ -8842,7 +9270,7 @@
       <c r="AB152" s="1"/>
       <c r="AC152" s="1"/>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="153" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
       <c r="J153" s="2"/>
@@ -8855,7 +9283,7 @@
       <c r="AB153" s="1"/>
       <c r="AC153" s="1"/>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="154" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
       <c r="J154" s="2"/>
@@ -8868,7 +9296,7 @@
       <c r="AB154" s="1"/>
       <c r="AC154" s="1"/>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="155" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
       <c r="J155" s="2"/>
@@ -8881,7 +9309,7 @@
       <c r="AB155" s="1"/>
       <c r="AC155" s="1"/>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="156" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
       <c r="J156" s="2"/>
@@ -8894,7 +9322,7 @@
       <c r="AB156" s="1"/>
       <c r="AC156" s="1"/>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="157" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="J157" s="2"/>
@@ -8907,7 +9335,7 @@
       <c r="AB157" s="1"/>
       <c r="AC157" s="1"/>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="158" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
       <c r="J158" s="2"/>
@@ -8920,7 +9348,7 @@
       <c r="AB158" s="1"/>
       <c r="AC158" s="1"/>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="159" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
       <c r="J159" s="2"/>
@@ -8933,7 +9361,7 @@
       <c r="AB159" s="1"/>
       <c r="AC159" s="1"/>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="160" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
       <c r="J160" s="2"/>
@@ -8946,7 +9374,7 @@
       <c r="AB160" s="1"/>
       <c r="AC160" s="1"/>
     </row>
-    <row r="161" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="161" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
       <c r="J161" s="2"/>
@@ -8959,12 +9387,8 @@
       <c r="AB161" s="1"/>
       <c r="AC161" s="1"/>
     </row>
-    <row r="162" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="162" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
-      <c r="J162" s="2"/>
-      <c r="K162" s="2"/>
-      <c r="L162" s="2"/>
       <c r="U162" s="1"/>
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
@@ -8972,12 +9396,8 @@
       <c r="AB162" s="1"/>
       <c r="AC162" s="1"/>
     </row>
-    <row r="163" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="163" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G163" s="2"/>
-      <c r="H163" s="2"/>
-      <c r="J163" s="2"/>
-      <c r="K163" s="2"/>
-      <c r="L163" s="2"/>
       <c r="U163" s="1"/>
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
@@ -8985,12 +9405,7 @@
       <c r="AB163" s="1"/>
       <c r="AC163" s="1"/>
     </row>
-    <row r="164" spans="7:29" x14ac:dyDescent="0.25">
-      <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
-      <c r="J164" s="2"/>
-      <c r="K164" s="2"/>
-      <c r="L164" s="2"/>
+    <row r="164" spans="7:29" x14ac:dyDescent="0.3">
       <c r="U164" s="1"/>
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
@@ -8998,9 +9413,8 @@
       <c r="AB164" s="1"/>
       <c r="AC164" s="1"/>
     </row>
-    <row r="165" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="165" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
@@ -9011,7 +9425,7 @@
       <c r="AB165" s="1"/>
       <c r="AC165" s="1"/>
     </row>
-    <row r="166" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="166" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
       <c r="J166" s="2"/>
@@ -9024,7 +9438,7 @@
       <c r="AB166" s="1"/>
       <c r="AC166" s="1"/>
     </row>
-    <row r="167" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="167" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
       <c r="J167" s="2"/>
@@ -9037,7 +9451,7 @@
       <c r="AB167" s="1"/>
       <c r="AC167" s="1"/>
     </row>
-    <row r="168" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="168" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
       <c r="J168" s="2"/>
@@ -9050,8 +9464,7 @@
       <c r="AB168" s="1"/>
       <c r="AC168" s="1"/>
     </row>
-    <row r="169" spans="7:29" x14ac:dyDescent="0.25">
-      <c r="G169" s="2"/>
+    <row r="169" spans="7:29" x14ac:dyDescent="0.3">
       <c r="U169" s="1"/>
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
@@ -9059,8 +9472,7 @@
       <c r="AB169" s="1"/>
       <c r="AC169" s="1"/>
     </row>
-    <row r="170" spans="7:29" x14ac:dyDescent="0.25">
-      <c r="G170" s="2"/>
+    <row r="170" spans="7:29" x14ac:dyDescent="0.3">
       <c r="U170" s="1"/>
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
@@ -9068,7 +9480,12 @@
       <c r="AB170" s="1"/>
       <c r="AC170" s="1"/>
     </row>
-    <row r="171" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="171" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="J171" s="2"/>
+      <c r="K171" s="2"/>
+      <c r="L171" s="2"/>
       <c r="U171" s="1"/>
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
@@ -9076,8 +9493,9 @@
       <c r="AB171" s="1"/>
       <c r="AC171" s="1"/>
     </row>
-    <row r="172" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="172" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
@@ -9088,7 +9506,7 @@
       <c r="AB172" s="1"/>
       <c r="AC172" s="1"/>
     </row>
-    <row r="173" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="173" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
       <c r="J173" s="2"/>
@@ -9101,7 +9519,7 @@
       <c r="AB173" s="1"/>
       <c r="AC173" s="1"/>
     </row>
-    <row r="174" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="174" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
       <c r="J174" s="2"/>
@@ -9114,7 +9532,7 @@
       <c r="AB174" s="1"/>
       <c r="AC174" s="1"/>
     </row>
-    <row r="175" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="175" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
       <c r="J175" s="2"/>
@@ -9127,7 +9545,12 @@
       <c r="AB175" s="1"/>
       <c r="AC175" s="1"/>
     </row>
-    <row r="176" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="176" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="2"/>
       <c r="U176" s="1"/>
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
@@ -9135,7 +9558,12 @@
       <c r="AB176" s="1"/>
       <c r="AC176" s="1"/>
     </row>
-    <row r="177" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="177" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="J177" s="2"/>
+      <c r="K177" s="2"/>
+      <c r="L177" s="2"/>
       <c r="U177" s="1"/>
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
@@ -9143,7 +9571,7 @@
       <c r="AB177" s="1"/>
       <c r="AC177" s="1"/>
     </row>
-    <row r="178" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="178" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
       <c r="J178" s="2"/>
@@ -9156,7 +9584,7 @@
       <c r="AB178" s="1"/>
       <c r="AC178" s="1"/>
     </row>
-    <row r="179" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="179" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
       <c r="J179" s="2"/>
@@ -9169,7 +9597,7 @@
       <c r="AB179" s="1"/>
       <c r="AC179" s="1"/>
     </row>
-    <row r="180" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="180" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
       <c r="J180" s="2"/>
@@ -9182,7 +9610,7 @@
       <c r="AB180" s="1"/>
       <c r="AC180" s="1"/>
     </row>
-    <row r="181" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="181" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
       <c r="J181" s="2"/>
@@ -9195,7 +9623,7 @@
       <c r="AB181" s="1"/>
       <c r="AC181" s="1"/>
     </row>
-    <row r="182" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="182" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
       <c r="J182" s="2"/>
@@ -9208,7 +9636,7 @@
       <c r="AB182" s="1"/>
       <c r="AC182" s="1"/>
     </row>
-    <row r="183" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="183" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="J183" s="2"/>
@@ -9221,7 +9649,7 @@
       <c r="AB183" s="1"/>
       <c r="AC183" s="1"/>
     </row>
-    <row r="184" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="184" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
       <c r="J184" s="2"/>
@@ -9234,7 +9662,7 @@
       <c r="AB184" s="1"/>
       <c r="AC184" s="1"/>
     </row>
-    <row r="185" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="185" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
       <c r="J185" s="2"/>
@@ -9247,7 +9675,7 @@
       <c r="AB185" s="1"/>
       <c r="AC185" s="1"/>
     </row>
-    <row r="186" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="186" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
       <c r="J186" s="2"/>
@@ -9260,7 +9688,7 @@
       <c r="AB186" s="1"/>
       <c r="AC186" s="1"/>
     </row>
-    <row r="187" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="187" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
       <c r="J187" s="2"/>
@@ -9273,7 +9701,7 @@
       <c r="AB187" s="1"/>
       <c r="AC187" s="1"/>
     </row>
-    <row r="188" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="188" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
       <c r="J188" s="2"/>
@@ -9286,7 +9714,7 @@
       <c r="AB188" s="1"/>
       <c r="AC188" s="1"/>
     </row>
-    <row r="189" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="189" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
       <c r="J189" s="2"/>
@@ -9299,7 +9727,7 @@
       <c r="AB189" s="1"/>
       <c r="AC189" s="1"/>
     </row>
-    <row r="190" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="190" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
       <c r="J190" s="2"/>
@@ -9312,7 +9740,7 @@
       <c r="AB190" s="1"/>
       <c r="AC190" s="1"/>
     </row>
-    <row r="191" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="191" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
       <c r="J191" s="2"/>
@@ -9325,7 +9753,7 @@
       <c r="AB191" s="1"/>
       <c r="AC191" s="1"/>
     </row>
-    <row r="192" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="192" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
       <c r="J192" s="2"/>
@@ -9338,7 +9766,7 @@
       <c r="AB192" s="1"/>
       <c r="AC192" s="1"/>
     </row>
-    <row r="193" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="193" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
       <c r="J193" s="2"/>
@@ -9351,7 +9779,7 @@
       <c r="AB193" s="1"/>
       <c r="AC193" s="1"/>
     </row>
-    <row r="194" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="194" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
       <c r="J194" s="2"/>
@@ -9364,12 +9792,7 @@
       <c r="AB194" s="1"/>
       <c r="AC194" s="1"/>
     </row>
-    <row r="195" spans="7:29" x14ac:dyDescent="0.25">
-      <c r="G195" s="2"/>
-      <c r="H195" s="2"/>
-      <c r="J195" s="2"/>
-      <c r="K195" s="2"/>
-      <c r="L195" s="2"/>
+    <row r="195" spans="7:29" x14ac:dyDescent="0.3">
       <c r="U195" s="1"/>
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
@@ -9377,7 +9800,7 @@
       <c r="AB195" s="1"/>
       <c r="AC195" s="1"/>
     </row>
-    <row r="196" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="196" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
       <c r="J196" s="2"/>
@@ -9390,7 +9813,7 @@
       <c r="AB196" s="1"/>
       <c r="AC196" s="1"/>
     </row>
-    <row r="197" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="197" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
       <c r="J197" s="2"/>
@@ -9403,7 +9826,7 @@
       <c r="AB197" s="1"/>
       <c r="AC197" s="1"/>
     </row>
-    <row r="198" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="198" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
       <c r="J198" s="2"/>
@@ -9416,7 +9839,7 @@
       <c r="AB198" s="1"/>
       <c r="AC198" s="1"/>
     </row>
-    <row r="199" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="199" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
       <c r="J199" s="2"/>
@@ -9429,12 +9852,7 @@
       <c r="AB199" s="1"/>
       <c r="AC199" s="1"/>
     </row>
-    <row r="200" spans="7:29" x14ac:dyDescent="0.25">
-      <c r="G200" s="2"/>
-      <c r="H200" s="2"/>
-      <c r="J200" s="2"/>
-      <c r="K200" s="2"/>
-      <c r="L200" s="2"/>
+    <row r="200" spans="7:29" x14ac:dyDescent="0.3">
       <c r="U200" s="1"/>
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
@@ -9442,12 +9860,7 @@
       <c r="AB200" s="1"/>
       <c r="AC200" s="1"/>
     </row>
-    <row r="201" spans="7:29" x14ac:dyDescent="0.25">
-      <c r="G201" s="2"/>
-      <c r="H201" s="2"/>
-      <c r="J201" s="2"/>
-      <c r="K201" s="2"/>
-      <c r="L201" s="2"/>
+    <row r="201" spans="7:29" x14ac:dyDescent="0.3">
       <c r="U201" s="1"/>
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
@@ -9455,7 +9868,12 @@
       <c r="AB201" s="1"/>
       <c r="AC201" s="1"/>
     </row>
-    <row r="202" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="202" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+      <c r="J202" s="2"/>
+      <c r="K202" s="2"/>
+      <c r="L202" s="2"/>
       <c r="U202" s="1"/>
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
@@ -9463,7 +9881,7 @@
       <c r="AB202" s="1"/>
       <c r="AC202" s="1"/>
     </row>
-    <row r="203" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="203" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
       <c r="J203" s="2"/>
@@ -9476,7 +9894,7 @@
       <c r="AB203" s="1"/>
       <c r="AC203" s="1"/>
     </row>
-    <row r="204" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="204" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
       <c r="J204" s="2"/>
@@ -9489,7 +9907,7 @@
       <c r="AB204" s="1"/>
       <c r="AC204" s="1"/>
     </row>
-    <row r="205" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="205" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
       <c r="J205" s="2"/>
@@ -9502,12 +9920,7 @@
       <c r="AB205" s="1"/>
       <c r="AC205" s="1"/>
     </row>
-    <row r="206" spans="7:29" x14ac:dyDescent="0.25">
-      <c r="G206" s="2"/>
-      <c r="H206" s="2"/>
-      <c r="J206" s="2"/>
-      <c r="K206" s="2"/>
-      <c r="L206" s="2"/>
+    <row r="206" spans="7:29" x14ac:dyDescent="0.3">
       <c r="U206" s="1"/>
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
@@ -9515,7 +9928,7 @@
       <c r="AB206" s="1"/>
       <c r="AC206" s="1"/>
     </row>
-    <row r="207" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="207" spans="7:29" x14ac:dyDescent="0.3">
       <c r="U207" s="1"/>
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
@@ -9523,7 +9936,12 @@
       <c r="AB207" s="1"/>
       <c r="AC207" s="1"/>
     </row>
-    <row r="208" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="208" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+      <c r="J208" s="2"/>
+      <c r="K208" s="2"/>
+      <c r="L208" s="2"/>
       <c r="U208" s="1"/>
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
@@ -9531,7 +9949,7 @@
       <c r="AB208" s="1"/>
       <c r="AC208" s="1"/>
     </row>
-    <row r="209" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="209" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
       <c r="J209" s="2"/>
@@ -9544,7 +9962,7 @@
       <c r="AB209" s="1"/>
       <c r="AC209" s="1"/>
     </row>
-    <row r="210" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="210" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
       <c r="J210" s="2"/>
@@ -9557,7 +9975,7 @@
       <c r="AB210" s="1"/>
       <c r="AC210" s="1"/>
     </row>
-    <row r="211" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="211" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
       <c r="J211" s="2"/>
@@ -9570,12 +9988,7 @@
       <c r="AB211" s="1"/>
       <c r="AC211" s="1"/>
     </row>
-    <row r="212" spans="7:29" x14ac:dyDescent="0.25">
-      <c r="G212" s="2"/>
-      <c r="H212" s="2"/>
-      <c r="J212" s="2"/>
-      <c r="K212" s="2"/>
-      <c r="L212" s="2"/>
+    <row r="212" spans="7:29" x14ac:dyDescent="0.3">
       <c r="U212" s="1"/>
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
@@ -9583,7 +9996,7 @@
       <c r="AB212" s="1"/>
       <c r="AC212" s="1"/>
     </row>
-    <row r="213" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="213" spans="7:29" x14ac:dyDescent="0.3">
       <c r="U213" s="1"/>
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
@@ -9591,7 +10004,12 @@
       <c r="AB213" s="1"/>
       <c r="AC213" s="1"/>
     </row>
-    <row r="214" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="214" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+      <c r="J214" s="2"/>
+      <c r="K214" s="2"/>
+      <c r="L214" s="2"/>
       <c r="U214" s="1"/>
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
@@ -9599,7 +10017,7 @@
       <c r="AB214" s="1"/>
       <c r="AC214" s="1"/>
     </row>
-    <row r="215" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="215" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
       <c r="J215" s="2"/>
@@ -9612,7 +10030,7 @@
       <c r="AB215" s="1"/>
       <c r="AC215" s="1"/>
     </row>
-    <row r="216" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="216" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
       <c r="J216" s="2"/>
@@ -9625,7 +10043,7 @@
       <c r="AB216" s="1"/>
       <c r="AC216" s="1"/>
     </row>
-    <row r="217" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="217" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
       <c r="J217" s="2"/>
@@ -9638,12 +10056,7 @@
       <c r="AB217" s="1"/>
       <c r="AC217" s="1"/>
     </row>
-    <row r="218" spans="7:29" x14ac:dyDescent="0.25">
-      <c r="G218" s="2"/>
-      <c r="H218" s="2"/>
-      <c r="J218" s="2"/>
-      <c r="K218" s="2"/>
-      <c r="L218" s="2"/>
+    <row r="218" spans="7:29" x14ac:dyDescent="0.3">
       <c r="U218" s="1"/>
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
@@ -9651,7 +10064,7 @@
       <c r="AB218" s="1"/>
       <c r="AC218" s="1"/>
     </row>
-    <row r="219" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="219" spans="7:29" x14ac:dyDescent="0.3">
       <c r="U219" s="1"/>
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
@@ -9659,7 +10072,12 @@
       <c r="AB219" s="1"/>
       <c r="AC219" s="1"/>
     </row>
-    <row r="220" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="220" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G220" s="2"/>
+      <c r="H220" s="2"/>
+      <c r="J220" s="2"/>
+      <c r="K220" s="2"/>
+      <c r="L220" s="2"/>
       <c r="U220" s="1"/>
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
@@ -9667,7 +10085,7 @@
       <c r="AB220" s="1"/>
       <c r="AC220" s="1"/>
     </row>
-    <row r="221" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="221" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
       <c r="J221" s="2"/>
@@ -9680,7 +10098,7 @@
       <c r="AB221" s="1"/>
       <c r="AC221" s="1"/>
     </row>
-    <row r="222" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="222" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
       <c r="J222" s="2"/>
@@ -9693,7 +10111,7 @@
       <c r="AB222" s="1"/>
       <c r="AC222" s="1"/>
     </row>
-    <row r="223" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="223" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
       <c r="J223" s="2"/>
@@ -9706,12 +10124,7 @@
       <c r="AB223" s="1"/>
       <c r="AC223" s="1"/>
     </row>
-    <row r="224" spans="7:29" x14ac:dyDescent="0.25">
-      <c r="G224" s="2"/>
-      <c r="H224" s="2"/>
-      <c r="J224" s="2"/>
-      <c r="K224" s="2"/>
-      <c r="L224" s="2"/>
+    <row r="224" spans="7:29" x14ac:dyDescent="0.3">
       <c r="U224" s="1"/>
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
@@ -9719,7 +10132,12 @@
       <c r="AB224" s="1"/>
       <c r="AC224" s="1"/>
     </row>
-    <row r="225" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="225" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G225" s="2"/>
+      <c r="H225" s="2"/>
+      <c r="J225" s="2"/>
+      <c r="K225" s="2"/>
+      <c r="L225" s="2"/>
       <c r="U225" s="1"/>
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
@@ -9727,7 +10145,12 @@
       <c r="AB225" s="1"/>
       <c r="AC225" s="1"/>
     </row>
-    <row r="226" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="226" spans="7:29" x14ac:dyDescent="0.3">
+      <c r="G226" s="2"/>
+      <c r="H226" s="2"/>
+      <c r="J226" s="2"/>
+      <c r="K226" s="2"/>
+      <c r="L226" s="2"/>
       <c r="U226" s="1"/>
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
@@ -9735,7 +10158,7 @@
       <c r="AB226" s="1"/>
       <c r="AC226" s="1"/>
     </row>
-    <row r="227" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="227" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G227" s="2"/>
       <c r="H227" s="2"/>
       <c r="J227" s="2"/>
@@ -9748,7 +10171,7 @@
       <c r="AB227" s="1"/>
       <c r="AC227" s="1"/>
     </row>
-    <row r="228" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="228" spans="7:29" x14ac:dyDescent="0.3">
       <c r="G228" s="2"/>
       <c r="H228" s="2"/>
       <c r="J228" s="2"/>
@@ -9761,12 +10184,7 @@
       <c r="AB228" s="1"/>
       <c r="AC228" s="1"/>
     </row>
-    <row r="229" spans="7:29" x14ac:dyDescent="0.25">
-      <c r="G229" s="2"/>
-      <c r="H229" s="2"/>
-      <c r="J229" s="2"/>
-      <c r="K229" s="2"/>
-      <c r="L229" s="2"/>
+    <row r="229" spans="7:29" x14ac:dyDescent="0.3">
       <c r="U229" s="1"/>
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
@@ -9774,12 +10192,7 @@
       <c r="AB229" s="1"/>
       <c r="AC229" s="1"/>
     </row>
-    <row r="230" spans="7:29" x14ac:dyDescent="0.25">
-      <c r="G230" s="2"/>
-      <c r="H230" s="2"/>
-      <c r="J230" s="2"/>
-      <c r="K230" s="2"/>
-      <c r="L230" s="2"/>
+    <row r="230" spans="7:29" x14ac:dyDescent="0.3">
       <c r="U230" s="1"/>
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
@@ -9787,7 +10200,7 @@
       <c r="AB230" s="1"/>
       <c r="AC230" s="1"/>
     </row>
-    <row r="231" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="231" spans="7:29" x14ac:dyDescent="0.3">
       <c r="U231" s="1"/>
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
@@ -9795,12 +10208,7 @@
       <c r="AB231" s="1"/>
       <c r="AC231" s="1"/>
     </row>
-    <row r="232" spans="7:29" x14ac:dyDescent="0.25">
-      <c r="G232" s="2"/>
-      <c r="H232" s="2"/>
-      <c r="J232" s="2"/>
-      <c r="K232" s="2"/>
-      <c r="L232" s="2"/>
+    <row r="232" spans="7:29" x14ac:dyDescent="0.3">
       <c r="U232" s="1"/>
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
@@ -9808,12 +10216,7 @@
       <c r="AB232" s="1"/>
       <c r="AC232" s="1"/>
     </row>
-    <row r="233" spans="7:29" x14ac:dyDescent="0.25">
-      <c r="G233" s="2"/>
-      <c r="H233" s="2"/>
-      <c r="J233" s="2"/>
-      <c r="K233" s="2"/>
-      <c r="L233" s="2"/>
+    <row r="233" spans="7:29" x14ac:dyDescent="0.3">
       <c r="U233" s="1"/>
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
@@ -9821,12 +10224,7 @@
       <c r="AB233" s="1"/>
       <c r="AC233" s="1"/>
     </row>
-    <row r="234" spans="7:29" x14ac:dyDescent="0.25">
-      <c r="G234" s="2"/>
-      <c r="H234" s="2"/>
-      <c r="J234" s="2"/>
-      <c r="K234" s="2"/>
-      <c r="L234" s="2"/>
+    <row r="234" spans="7:29" x14ac:dyDescent="0.3">
       <c r="U234" s="1"/>
       <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
@@ -9834,12 +10232,7 @@
       <c r="AB234" s="1"/>
       <c r="AC234" s="1"/>
     </row>
-    <row r="235" spans="7:29" x14ac:dyDescent="0.25">
-      <c r="G235" s="2"/>
-      <c r="H235" s="2"/>
-      <c r="J235" s="2"/>
-      <c r="K235" s="2"/>
-      <c r="L235" s="2"/>
+    <row r="235" spans="7:29" x14ac:dyDescent="0.3">
       <c r="U235" s="1"/>
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
@@ -9847,7 +10240,7 @@
       <c r="AB235" s="1"/>
       <c r="AC235" s="1"/>
     </row>
-    <row r="236" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="236" spans="7:29" x14ac:dyDescent="0.3">
       <c r="U236" s="1"/>
       <c r="Y236" s="1"/>
       <c r="Z236" s="1"/>
@@ -9855,7 +10248,7 @@
       <c r="AB236" s="1"/>
       <c r="AC236" s="1"/>
     </row>
-    <row r="237" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="237" spans="7:29" x14ac:dyDescent="0.3">
       <c r="U237" s="1"/>
       <c r="Y237" s="1"/>
       <c r="Z237" s="1"/>
@@ -9863,7 +10256,7 @@
       <c r="AB237" s="1"/>
       <c r="AC237" s="1"/>
     </row>
-    <row r="238" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="238" spans="7:29" x14ac:dyDescent="0.3">
       <c r="U238" s="1"/>
       <c r="Y238" s="1"/>
       <c r="Z238" s="1"/>
@@ -9871,7 +10264,7 @@
       <c r="AB238" s="1"/>
       <c r="AC238" s="1"/>
     </row>
-    <row r="239" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="239" spans="7:29" x14ac:dyDescent="0.3">
       <c r="U239" s="1"/>
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
@@ -9879,7 +10272,7 @@
       <c r="AB239" s="1"/>
       <c r="AC239" s="1"/>
     </row>
-    <row r="240" spans="7:29" x14ac:dyDescent="0.25">
+    <row r="240" spans="7:29" x14ac:dyDescent="0.3">
       <c r="U240" s="1"/>
       <c r="Y240" s="1"/>
       <c r="Z240" s="1"/>
@@ -9887,204 +10280,386 @@
       <c r="AB240" s="1"/>
       <c r="AC240" s="1"/>
     </row>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="321" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="324" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="326" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="327" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="328" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="330" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="331" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="332" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="333" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="335" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U335"/>
-    </row>
-    <row r="336" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U336"/>
-    </row>
-    <row r="337" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U337"/>
-    </row>
-    <row r="338" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U338"/>
-    </row>
-    <row r="339" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U339"/>
-    </row>
-    <row r="340" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U340"/>
-    </row>
-    <row r="341" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U341"/>
-    </row>
-    <row r="342" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U342"/>
-    </row>
-    <row r="343" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U343"/>
-    </row>
-    <row r="344" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U344"/>
-    </row>
-    <row r="345" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U345"/>
-    </row>
-    <row r="346" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U346"/>
-    </row>
-    <row r="347" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U347"/>
-    </row>
-    <row r="348" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U348"/>
-    </row>
-    <row r="349" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U349"/>
-    </row>
-    <row r="350" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U350"/>
-    </row>
-    <row r="351" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U351"/>
-    </row>
-    <row r="352" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U352"/>
-    </row>
-    <row r="353" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U353"/>
-    </row>
-    <row r="354" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U354"/>
-    </row>
-    <row r="355" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U355"/>
-    </row>
-    <row r="356" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U356"/>
-    </row>
-    <row r="357" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U357"/>
-    </row>
-    <row r="358" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U358"/>
-    </row>
-    <row r="359" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U359"/>
-    </row>
-    <row r="360" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U360"/>
-    </row>
-    <row r="361" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U361"/>
-    </row>
-    <row r="362" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U362"/>
-    </row>
-    <row r="363" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U363"/>
-    </row>
-    <row r="364" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U364"/>
-    </row>
-    <row r="365" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U365"/>
-    </row>
-    <row r="366" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U366"/>
-    </row>
-    <row r="367" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U367"/>
-    </row>
-    <row r="368" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U368"/>
-    </row>
-    <row r="369" spans="21:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U369"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="321" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="U321" s="1"/>
+      <c r="Y321" s="1"/>
+      <c r="Z321" s="1"/>
+      <c r="AA321" s="1"/>
+      <c r="AB321" s="1"/>
+      <c r="AC321" s="1"/>
+    </row>
+    <row r="322" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="U322" s="1"/>
+      <c r="Y322" s="1"/>
+      <c r="Z322" s="1"/>
+      <c r="AA322" s="1"/>
+      <c r="AB322" s="1"/>
+      <c r="AC322" s="1"/>
+    </row>
+    <row r="323" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="U323" s="1"/>
+      <c r="Y323" s="1"/>
+      <c r="Z323" s="1"/>
+      <c r="AA323" s="1"/>
+      <c r="AB323" s="1"/>
+      <c r="AC323" s="1"/>
+    </row>
+    <row r="324" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="U324" s="1"/>
+      <c r="Y324" s="1"/>
+      <c r="Z324" s="1"/>
+      <c r="AA324" s="1"/>
+      <c r="AB324" s="1"/>
+      <c r="AC324" s="1"/>
+    </row>
+    <row r="325" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="U325" s="1"/>
+      <c r="Y325" s="1"/>
+      <c r="Z325" s="1"/>
+      <c r="AA325" s="1"/>
+      <c r="AB325" s="1"/>
+      <c r="AC325" s="1"/>
+    </row>
+    <row r="326" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="U326" s="1"/>
+      <c r="Y326" s="1"/>
+      <c r="Z326" s="1"/>
+      <c r="AA326" s="1"/>
+      <c r="AB326" s="1"/>
+      <c r="AC326" s="1"/>
+    </row>
+    <row r="327" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="U327" s="1"/>
+      <c r="Y327" s="1"/>
+      <c r="Z327" s="1"/>
+      <c r="AA327" s="1"/>
+      <c r="AB327" s="1"/>
+      <c r="AC327" s="1"/>
+    </row>
+    <row r="328" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="Y328" s="1"/>
+      <c r="Z328" s="1"/>
+      <c r="AA328" s="1"/>
+      <c r="AB328" s="1"/>
+      <c r="AC328" s="1"/>
+    </row>
+    <row r="329" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="Y329" s="1"/>
+      <c r="Z329" s="1"/>
+      <c r="AA329" s="1"/>
+      <c r="AB329" s="1"/>
+      <c r="AC329" s="1"/>
+    </row>
+    <row r="330" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="Y330" s="1"/>
+      <c r="Z330" s="1"/>
+      <c r="AA330" s="1"/>
+      <c r="AB330" s="1"/>
+      <c r="AC330" s="1"/>
+    </row>
+    <row r="331" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="Y331" s="1"/>
+      <c r="Z331" s="1"/>
+      <c r="AA331" s="1"/>
+      <c r="AB331" s="1"/>
+      <c r="AC331" s="1"/>
+    </row>
+    <row r="332" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="Y332" s="1"/>
+      <c r="Z332" s="1"/>
+      <c r="AA332" s="1"/>
+      <c r="AB332" s="1"/>
+      <c r="AC332" s="1"/>
+    </row>
+    <row r="333" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="Y333" s="1"/>
+      <c r="Z333" s="1"/>
+      <c r="AA333" s="1"/>
+      <c r="AB333" s="1"/>
+      <c r="AC333" s="1"/>
+    </row>
+    <row r="334" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="Y334" s="1"/>
+      <c r="Z334" s="1"/>
+      <c r="AA334" s="1"/>
+      <c r="AB334" s="1"/>
+      <c r="AC334" s="1"/>
+    </row>
+    <row r="335" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="Y335" s="1"/>
+      <c r="Z335" s="1"/>
+      <c r="AA335" s="1"/>
+      <c r="AB335" s="1"/>
+      <c r="AC335" s="1"/>
+    </row>
+    <row r="336" spans="21:29" x14ac:dyDescent="0.3">
+      <c r="Y336" s="1"/>
+      <c r="Z336" s="1"/>
+      <c r="AA336" s="1"/>
+      <c r="AB336" s="1"/>
+      <c r="AC336" s="1"/>
+    </row>
+    <row r="337" spans="25:29" x14ac:dyDescent="0.3">
+      <c r="Y337" s="1"/>
+      <c r="Z337" s="1"/>
+      <c r="AA337" s="1"/>
+      <c r="AB337" s="1"/>
+      <c r="AC337" s="1"/>
+    </row>
+    <row r="338" spans="25:29" x14ac:dyDescent="0.3">
+      <c r="Y338" s="1"/>
+      <c r="Z338" s="1"/>
+      <c r="AA338" s="1"/>
+      <c r="AB338" s="1"/>
+      <c r="AC338" s="1"/>
+    </row>
+    <row r="339" spans="25:29" x14ac:dyDescent="0.3">
+      <c r="Y339" s="1"/>
+      <c r="Z339" s="1"/>
+      <c r="AA339" s="1"/>
+      <c r="AB339" s="1"/>
+      <c r="AC339" s="1"/>
+    </row>
+    <row r="340" spans="25:29" x14ac:dyDescent="0.3">
+      <c r="Y340" s="1"/>
+      <c r="Z340" s="1"/>
+      <c r="AA340" s="1"/>
+      <c r="AB340" s="1"/>
+      <c r="AC340" s="1"/>
+    </row>
+    <row r="341" spans="25:29" x14ac:dyDescent="0.3">
+      <c r="Y341" s="1"/>
+      <c r="Z341" s="1"/>
+      <c r="AA341" s="1"/>
+      <c r="AB341" s="1"/>
+      <c r="AC341" s="1"/>
+    </row>
+    <row r="342" spans="25:29" x14ac:dyDescent="0.3">
+      <c r="Y342" s="1"/>
+      <c r="Z342" s="1"/>
+      <c r="AA342" s="1"/>
+      <c r="AB342" s="1"/>
+      <c r="AC342" s="1"/>
+    </row>
+    <row r="343" spans="25:29" x14ac:dyDescent="0.3">
+      <c r="Y343" s="1"/>
+      <c r="Z343" s="1"/>
+      <c r="AA343" s="1"/>
+      <c r="AB343" s="1"/>
+      <c r="AC343" s="1"/>
+    </row>
+    <row r="344" spans="25:29" x14ac:dyDescent="0.3">
+      <c r="Y344" s="1"/>
+      <c r="Z344" s="1"/>
+      <c r="AA344" s="1"/>
+      <c r="AB344" s="1"/>
+      <c r="AC344" s="1"/>
+    </row>
+    <row r="345" spans="25:29" x14ac:dyDescent="0.3">
+      <c r="Y345" s="1"/>
+      <c r="Z345" s="1"/>
+      <c r="AA345" s="1"/>
+      <c r="AB345" s="1"/>
+      <c r="AC345" s="1"/>
+    </row>
+    <row r="346" spans="25:29" x14ac:dyDescent="0.3">
+      <c r="Y346" s="1"/>
+      <c r="Z346" s="1"/>
+      <c r="AA346" s="1"/>
+      <c r="AB346" s="1"/>
+      <c r="AC346" s="1"/>
+    </row>
+    <row r="347" spans="25:29" x14ac:dyDescent="0.3">
+      <c r="Y347" s="1"/>
+      <c r="Z347" s="1"/>
+      <c r="AA347" s="1"/>
+      <c r="AB347" s="1"/>
+      <c r="AC347" s="1"/>
+    </row>
+    <row r="348" spans="25:29" x14ac:dyDescent="0.3">
+      <c r="Y348" s="1"/>
+      <c r="Z348" s="1"/>
+      <c r="AA348" s="1"/>
+      <c r="AB348" s="1"/>
+      <c r="AC348" s="1"/>
+    </row>
+    <row r="349" spans="25:29" x14ac:dyDescent="0.3">
+      <c r="Y349" s="1"/>
+      <c r="Z349" s="1"/>
+      <c r="AA349" s="1"/>
+      <c r="AB349" s="1"/>
+      <c r="AC349" s="1"/>
+    </row>
+    <row r="350" spans="25:29" x14ac:dyDescent="0.3">
+      <c r="Y350" s="1"/>
+      <c r="Z350" s="1"/>
+      <c r="AA350" s="1"/>
+      <c r="AB350" s="1"/>
+      <c r="AC350" s="1"/>
+    </row>
+    <row r="351" spans="25:29" x14ac:dyDescent="0.3">
+      <c r="Y351" s="1"/>
+      <c r="Z351" s="1"/>
+      <c r="AA351" s="1"/>
+      <c r="AB351" s="1"/>
+      <c r="AC351" s="1"/>
+    </row>
+    <row r="352" spans="25:29" x14ac:dyDescent="0.3">
+      <c r="Y352" s="1"/>
+      <c r="Z352" s="1"/>
+      <c r="AA352" s="1"/>
+      <c r="AB352" s="1"/>
+      <c r="AC352" s="1"/>
+    </row>
+    <row r="353" spans="25:29" x14ac:dyDescent="0.3">
+      <c r="Y353" s="1"/>
+      <c r="Z353" s="1"/>
+      <c r="AA353" s="1"/>
+      <c r="AB353" s="1"/>
+      <c r="AC353" s="1"/>
+    </row>
+    <row r="354" spans="25:29" x14ac:dyDescent="0.3">
+      <c r="Y354" s="1"/>
+      <c r="Z354" s="1"/>
+      <c r="AA354" s="1"/>
+      <c r="AB354" s="1"/>
+      <c r="AC354" s="1"/>
+    </row>
+    <row r="355" spans="25:29" x14ac:dyDescent="0.3">
+      <c r="Y355" s="1"/>
+      <c r="Z355" s="1"/>
+      <c r="AA355" s="1"/>
+      <c r="AB355" s="1"/>
+      <c r="AC355" s="1"/>
+    </row>
+    <row r="356" spans="25:29" x14ac:dyDescent="0.3">
+      <c r="Y356" s="1"/>
+      <c r="Z356" s="1"/>
+      <c r="AA356" s="1"/>
+      <c r="AB356" s="1"/>
+      <c r="AC356" s="1"/>
+    </row>
+    <row r="357" spans="25:29" x14ac:dyDescent="0.3">
+      <c r="Y357" s="1"/>
+      <c r="Z357" s="1"/>
+      <c r="AA357" s="1"/>
+      <c r="AB357" s="1"/>
+      <c r="AC357" s="1"/>
+    </row>
+    <row r="358" spans="25:29" x14ac:dyDescent="0.3">
+      <c r="Y358" s="1"/>
+      <c r="Z358" s="1"/>
+      <c r="AA358" s="1"/>
+      <c r="AB358" s="1"/>
+      <c r="AC358" s="1"/>
+    </row>
+    <row r="359" spans="25:29" x14ac:dyDescent="0.3">
+      <c r="Y359" s="1"/>
+      <c r="Z359" s="1"/>
+      <c r="AA359" s="1"/>
+      <c r="AB359" s="1"/>
+      <c r="AC359" s="1"/>
+    </row>
+    <row r="360" spans="25:29" x14ac:dyDescent="0.3">
+      <c r="Y360" s="1"/>
+      <c r="Z360" s="1"/>
+      <c r="AA360" s="1"/>
+      <c r="AB360" s="1"/>
+      <c r="AC360" s="1"/>
+    </row>
+    <row r="361" spans="25:29" x14ac:dyDescent="0.3">
+      <c r="Y361" s="1"/>
+      <c r="Z361" s="1"/>
+      <c r="AA361" s="1"/>
+      <c r="AB361" s="1"/>
+      <c r="AC361" s="1"/>
+    </row>
+    <row r="362" spans="25:29" x14ac:dyDescent="0.3">
+      <c r="Y362" s="1"/>
+      <c r="Z362" s="1"/>
+      <c r="AA362" s="1"/>
+      <c r="AB362" s="1"/>
+      <c r="AC362" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
